--- a/moyusi/Keywords/Web/优惠券-进行中检查.xlsx
+++ b/moyusi/Keywords/Web/优惠券-进行中检查.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="289" uniqueCount="141">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="273" uniqueCount="141">
   <si>
     <t>操作类型</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -227,15 +227,7 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>//*[@class="center"]/ul/*/span</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>//*[@class="title"]/span</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>else_if_id不包含</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -290,10 +282,6 @@
   </si>
   <si>
     <t>查看详情</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>//span[text()='停止投放']</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -423,18 +411,27 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>2018-10-15 00:00:00 - 2018-10-30 00:00:00</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>滑动屏幕</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
+    <t>Web_返回</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Web操作-返回上个页面</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>使用时间段：</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>使用范围：</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <t xml:space="preserve">优惠券数据 </t>
-  </si>
-  <si>
-    <t>检查点-优惠券详情页</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -442,31 +439,160 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>Web_返回</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Web操作-返回上个页面</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>2018-10-15 00:00:00 - 2018-10-30 00:00:00</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>2018-10-15 00:00:00 - 2018-10-30 00:00:00</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>使用时间段：</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>使用范围：</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">优惠券数据 </t>
+    <t>优惠券名称：</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>优惠券</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>发放总量：</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>el-message-box</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>此操作将停止投放该优惠券, 是否继续?</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>停用成功</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>共0条数据</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>向下滑动</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>//*[@class="center"]/ul/*/span</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>指定商品可用</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>优惠方式：</t>
+  </si>
+  <si>
+    <t>折扣</t>
+  </si>
+  <si>
+    <t>折扣：</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>商品名称：</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>这是测试优惠券，123456789456123456789</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>使用说明：</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>每人限领：</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>秒杀</t>
+  </si>
+  <si>
+    <t>检查点-秒杀</t>
+  </si>
+  <si>
+    <t>//*[text()="进行中的活动"]</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>点击-“进行中的活动”</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>//*[@class='search search']/div/input</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>点击-搜索框</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>输入_xpath</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>//*[@class='search search']/div/input</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>优惠券</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>输入-优惠券</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>//*[@class='search search']/div/button</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>点击-搜索按钮</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否参加联盟：</t>
+  </si>
+  <si>
+    <t>否</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>//*[@class="item marketCoupon"]/ul/*/label</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>//*[@class="item marketCoupon"]/ul/*/span</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>//*[@class="item marketCoupon"]/ul/*/label</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF222222"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>优惠券数据</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF222222"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">检查点-优惠券数据 </t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -474,127 +600,19 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>优惠券名称：</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>优惠券</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>发放总量：</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>el-message-box</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>此操作将停止投放该优惠券, 是否继续?</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>停用成功</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>共0条数据</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>向下滑动</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>//*[@class="center"]/ul/*/span</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>指定商品可用</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>优惠方式：</t>
-  </si>
-  <si>
-    <t>折扣</t>
-  </si>
-  <si>
-    <t>折扣：</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>商品名称：</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>这是测试优惠券，123456789456123456789</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>使用说明：</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>每人限领：</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>秒杀</t>
-  </si>
-  <si>
-    <t>检查点-秒杀</t>
-  </si>
-  <si>
-    <t>//*[text()="进行中的活动"]</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>点击-“进行中的活动”</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>//*[@class='search search']/div/input</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>点击-搜索框</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>输入_xpath</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>//*[@class='search search']/div/input</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>优惠券</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>输入-优惠券</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>//*[@class='search search']/div/button</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>点击-搜索按钮</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>//*[@class="item marketCoupon"]/ul/*/span</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>检查点_xpath对比</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>我来测试价格的,</t>
+    <t>检查点-领取列表</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>if_文本包含</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>//span[text()='停止投放']</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>if_id不包含</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -677,7 +695,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -716,7 +734,6 @@
     <xf numFmtId="49" fontId="3" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -997,10 +1014,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H82"/>
+  <dimension ref="A1:H78"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
-      <selection activeCell="F60" sqref="F60"/>
+    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="A79" sqref="A79:XFD79"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1111,13 +1128,13 @@
         <v>9</v>
       </c>
       <c r="D7" s="9" t="s">
-        <v>126</v>
+        <v>117</v>
       </c>
       <c r="E7" s="9" t="s">
-        <v>127</v>
+        <v>118</v>
       </c>
       <c r="F7" s="9" t="s">
-        <v>126</v>
+        <v>117</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
@@ -1166,7 +1183,7 @@
         <v>9</v>
       </c>
       <c r="D11" s="9" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="E11" s="9" t="s">
         <v>26</v>
@@ -1208,10 +1225,10 @@
         <v>35</v>
       </c>
       <c r="B14" t="s">
-        <v>128</v>
+        <v>119</v>
       </c>
       <c r="E14" s="5" t="s">
-        <v>129</v>
+        <v>120</v>
       </c>
     </row>
     <row r="15" spans="1:8" s="11" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -1232,26 +1249,26 @@
         <v>35</v>
       </c>
       <c r="B16" s="17" t="s">
-        <v>130</v>
+        <v>121</v>
       </c>
       <c r="D16" s="18"/>
       <c r="E16" s="16" t="s">
-        <v>131</v>
+        <v>122</v>
       </c>
       <c r="F16" s="19"/>
     </row>
     <row r="17" spans="1:6" s="16" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="16" t="s">
-        <v>132</v>
+        <v>123</v>
       </c>
       <c r="B17" s="17" t="s">
-        <v>133</v>
+        <v>124</v>
       </c>
       <c r="D17" s="18" t="s">
-        <v>134</v>
+        <v>125</v>
       </c>
       <c r="E17" s="16" t="s">
-        <v>135</v>
+        <v>126</v>
       </c>
       <c r="F17" s="19"/>
     </row>
@@ -1260,11 +1277,11 @@
         <v>35</v>
       </c>
       <c r="B18" s="17" t="s">
-        <v>136</v>
+        <v>127</v>
       </c>
       <c r="D18" s="18"/>
       <c r="E18" s="16" t="s">
-        <v>137</v>
+        <v>128</v>
       </c>
       <c r="F18" s="19"/>
     </row>
@@ -1286,7 +1303,7 @@
         <v>37</v>
       </c>
       <c r="B20" s="17" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C20" s="16">
         <v>0</v>
@@ -1296,7 +1313,7 @@
         <v>39</v>
       </c>
       <c r="F20" s="19" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="21" spans="1:6" s="9" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
@@ -1350,21 +1367,21 @@
         <v>41</v>
       </c>
     </row>
-    <row r="24" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:6" s="9" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
       <c r="A24" s="5" t="s">
         <v>37</v>
       </c>
       <c r="B24" s="9" t="s">
-        <v>54</v>
+        <v>38</v>
       </c>
       <c r="C24" s="9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E24" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="F24" s="10" t="s">
-        <v>103</v>
+      <c r="F24" s="9" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="25" spans="1:6" s="9" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
@@ -1375,13 +1392,13 @@
         <v>38</v>
       </c>
       <c r="C25" s="9">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E25" s="9" t="s">
         <v>39</v>
       </c>
       <c r="F25" s="9" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="26" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.2">
@@ -1392,13 +1409,13 @@
         <v>36</v>
       </c>
       <c r="C26" s="9">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E26" s="9" t="s">
         <v>39</v>
       </c>
       <c r="F26" s="10" t="s">
-        <v>103</v>
+        <v>57</v>
       </c>
     </row>
     <row r="27" spans="1:6" s="9" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
@@ -1409,30 +1426,30 @@
         <v>38</v>
       </c>
       <c r="C27" s="9">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E27" s="9" t="s">
         <v>39</v>
       </c>
       <c r="F27" s="9" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.2">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" s="9" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
       <c r="A28" s="5" t="s">
         <v>37</v>
       </c>
       <c r="B28" s="9" t="s">
-        <v>36</v>
+        <v>108</v>
       </c>
       <c r="C28" s="9">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E28" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="F28" s="10" t="s">
-        <v>59</v>
+      <c r="F28" s="15" t="s">
+        <v>109</v>
       </c>
     </row>
     <row r="29" spans="1:6" s="9" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
@@ -1443,64 +1460,58 @@
         <v>38</v>
       </c>
       <c r="C29" s="9">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E29" s="9" t="s">
         <v>39</v>
       </c>
       <c r="F29" s="9" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" s="9" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A30" s="5" t="s">
         <v>37</v>
       </c>
       <c r="B30" s="9" t="s">
-        <v>117</v>
+        <v>36</v>
       </c>
       <c r="C30" s="9">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E30" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="F30" s="15" t="s">
-        <v>118</v>
+      <c r="F30" s="10">
+        <v>10</v>
       </c>
     </row>
     <row r="31" spans="1:6" s="9" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
       <c r="A31" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="B31" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="C31" s="9">
-        <v>5</v>
+        <v>9</v>
+      </c>
+      <c r="D31" s="9" t="s">
+        <v>60</v>
       </c>
       <c r="E31" s="9" t="s">
-        <v>39</v>
+        <v>77</v>
       </c>
       <c r="F31" s="9" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.2">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" s="9" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
       <c r="A32" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="B32" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="C32" s="9">
-        <v>5</v>
+        <v>9</v>
+      </c>
+      <c r="D32" s="9" t="s">
+        <v>61</v>
       </c>
       <c r="E32" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="F32" s="10">
-        <v>10</v>
+        <v>78</v>
+      </c>
+      <c r="F32" s="9" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="33" spans="1:6" s="9" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
@@ -1508,13 +1519,13 @@
         <v>9</v>
       </c>
       <c r="D33" s="9" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="E33" s="9" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F33" s="9" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="34" spans="1:6" s="9" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
@@ -1522,83 +1533,79 @@
         <v>9</v>
       </c>
       <c r="D34" s="9" t="s">
-        <v>63</v>
+        <v>85</v>
       </c>
       <c r="E34" s="9" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="F34" s="9" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" s="9" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
-      <c r="A35" s="5" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" s="11" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A35" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="B35" s="12">
+        <v>3000</v>
+      </c>
+      <c r="D35" s="13"/>
+      <c r="E35" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="F35" s="14"/>
+    </row>
+    <row r="36" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A36" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B36" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="C36" s="9">
+        <v>0</v>
+      </c>
+      <c r="E36" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="F36" s="10"/>
+    </row>
+    <row r="37" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A37" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="D35" s="9" t="s">
-        <v>66</v>
-      </c>
-      <c r="E35" s="9" t="s">
-        <v>82</v>
-      </c>
-      <c r="F35" s="9" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" s="9" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
-      <c r="A36" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="D36" s="9" t="s">
-        <v>88</v>
-      </c>
-      <c r="E36" s="9" t="s">
+      <c r="D37" s="10" t="s">
         <v>83</v>
       </c>
-      <c r="F36" s="9" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6" s="11" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A37" s="11" t="s">
+      <c r="E37" s="9" t="s">
+        <v>84</v>
+      </c>
+      <c r="F37" s="10" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" s="11" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A38" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="B37" s="12">
+      <c r="B38" s="12">
         <v>3000</v>
       </c>
-      <c r="D37" s="13"/>
-      <c r="E37" s="11" t="s">
+      <c r="D38" s="13"/>
+      <c r="E38" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="F37" s="14"/>
-    </row>
-    <row r="38" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="B38" s="9" t="s">
-        <v>47</v>
-      </c>
-      <c r="C38" s="9">
-        <v>0</v>
-      </c>
-      <c r="E38" s="9" t="s">
-        <v>48</v>
-      </c>
-      <c r="F38" s="10"/>
-    </row>
-    <row r="39" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="F38" s="14"/>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A39" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="D39" s="10" t="s">
-        <v>86</v>
+        <v>35</v>
+      </c>
+      <c r="B39" t="s">
+        <v>58</v>
       </c>
       <c r="E39" s="9" t="s">
-        <v>87</v>
-      </c>
-      <c r="F39" s="10" t="s">
-        <v>86</v>
+        <v>59</v>
       </c>
     </row>
     <row r="40" spans="1:6" s="11" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -1619,66 +1626,76 @@
         <v>35</v>
       </c>
       <c r="B41" t="s">
-        <v>60</v>
+        <v>86</v>
       </c>
       <c r="E41" s="9" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6" s="11" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A42" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="B42" s="12">
-        <v>3000</v>
-      </c>
-      <c r="D42" s="13"/>
-      <c r="E42" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="F42" s="14"/>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" s="9" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="A42" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D42" s="15" t="s">
+        <v>88</v>
+      </c>
+      <c r="E42" s="9" t="s">
+        <v>89</v>
+      </c>
+      <c r="F42" s="9" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" s="16" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A43" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="B43" t="s">
-        <v>89</v>
-      </c>
+        <v>37</v>
+      </c>
+      <c r="B43" s="17" t="s">
+        <v>133</v>
+      </c>
+      <c r="C43" s="16">
+        <v>0</v>
+      </c>
+      <c r="D43" s="18"/>
       <c r="E43" s="9" t="s">
-        <v>90</v>
+        <v>39</v>
+      </c>
+      <c r="F43" s="9" t="s">
+        <v>100</v>
       </c>
     </row>
     <row r="44" spans="1:6" s="9" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
       <c r="A44" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="D44" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="B44" s="17" t="s">
         <v>91</v>
       </c>
+      <c r="C44" s="9">
+        <v>0</v>
+      </c>
       <c r="E44" s="9" t="s">
-        <v>92</v>
+        <v>39</v>
       </c>
       <c r="F44" s="9" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6" s="16" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A45" s="5" t="s">
         <v>37</v>
       </c>
       <c r="B45" s="17" t="s">
-        <v>93</v>
-      </c>
-      <c r="C45" s="16">
-        <v>0</v>
-      </c>
-      <c r="D45" s="18"/>
+        <v>90</v>
+      </c>
+      <c r="C45" s="9">
+        <v>1</v>
+      </c>
       <c r="E45" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="F45" s="9" t="s">
-        <v>109</v>
+      <c r="F45" s="10" t="s">
+        <v>129</v>
       </c>
     </row>
     <row r="46" spans="1:6" s="9" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
@@ -1686,16 +1703,16 @@
         <v>37</v>
       </c>
       <c r="B46" s="17" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="C46" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E46" s="9" t="s">
         <v>39</v>
       </c>
       <c r="F46" s="9" t="s">
-        <v>110</v>
+        <v>130</v>
       </c>
     </row>
     <row r="47" spans="1:6" s="9" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
@@ -1703,16 +1720,16 @@
         <v>37</v>
       </c>
       <c r="B47" s="17" t="s">
-        <v>93</v>
+        <v>131</v>
       </c>
       <c r="C47" s="9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E47" s="9" t="s">
         <v>39</v>
       </c>
       <c r="F47" s="9" t="s">
-        <v>111</v>
+        <v>102</v>
       </c>
     </row>
     <row r="48" spans="1:6" s="9" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
@@ -1720,10 +1737,10 @@
         <v>37</v>
       </c>
       <c r="B48" s="17" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="C48" s="9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E48" s="9" t="s">
         <v>39</v>
@@ -1737,16 +1754,16 @@
         <v>37</v>
       </c>
       <c r="B49" s="17" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="C49" s="9">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E49" s="9" t="s">
         <v>39</v>
       </c>
       <c r="F49" s="10" t="s">
-        <v>119</v>
+        <v>110</v>
       </c>
     </row>
     <row r="50" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.2">
@@ -1754,16 +1771,16 @@
         <v>37</v>
       </c>
       <c r="B50" s="17" t="s">
-        <v>94</v>
+        <v>132</v>
       </c>
       <c r="C50" s="9">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E50" s="9" t="s">
         <v>39</v>
       </c>
       <c r="F50" s="10" t="s">
-        <v>120</v>
+        <v>111</v>
       </c>
     </row>
     <row r="51" spans="1:6" s="9" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
@@ -1771,16 +1788,16 @@
         <v>37</v>
       </c>
       <c r="B51" s="17" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="C51" s="9">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E51" s="9" t="s">
         <v>39</v>
       </c>
       <c r="F51" s="9" t="s">
-        <v>121</v>
+        <v>112</v>
       </c>
     </row>
     <row r="52" spans="1:6" s="9" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
@@ -1788,16 +1805,16 @@
         <v>37</v>
       </c>
       <c r="B52" s="17" t="s">
-        <v>138</v>
+        <v>90</v>
       </c>
       <c r="C52" s="9">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E52" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="F52" s="22">
-        <v>0.99</v>
+      <c r="F52" s="9" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="53" spans="1:6" s="9" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
@@ -1805,16 +1822,16 @@
         <v>37</v>
       </c>
       <c r="B53" s="17" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="C53" s="9">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="E53" s="9" t="s">
         <v>39</v>
       </c>
       <c r="F53" s="9" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="54" spans="1:6" s="9" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
@@ -1822,16 +1839,16 @@
         <v>37</v>
       </c>
       <c r="B54" s="17" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="C54" s="9">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="E54" s="9" t="s">
         <v>39</v>
       </c>
       <c r="F54" s="9" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
     </row>
     <row r="55" spans="1:6" s="9" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
@@ -1839,16 +1856,16 @@
         <v>37</v>
       </c>
       <c r="B55" s="17" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C55" s="9">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="E55" s="9" t="s">
         <v>39</v>
       </c>
       <c r="F55" s="9" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
     </row>
     <row r="56" spans="1:6" s="9" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
@@ -1856,16 +1873,16 @@
         <v>37</v>
       </c>
       <c r="B56" s="17" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="C56" s="9">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="E56" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="F56" s="9" t="s">
-        <v>96</v>
+      <c r="F56" s="15" t="s">
+        <v>113</v>
       </c>
     </row>
     <row r="57" spans="1:6" s="9" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
@@ -1873,16 +1890,16 @@
         <v>37</v>
       </c>
       <c r="B57" s="17" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="C57" s="9">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="E57" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="F57" s="9" t="s">
-        <v>106</v>
+      <c r="F57" s="15" t="s">
+        <v>115</v>
       </c>
     </row>
     <row r="58" spans="1:6" s="9" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
@@ -1890,16 +1907,16 @@
         <v>37</v>
       </c>
       <c r="B58" s="17" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="C58" s="9">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="E58" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="F58" s="9" t="s">
-        <v>118</v>
+      <c r="F58" s="15" t="s">
+        <v>114</v>
       </c>
     </row>
     <row r="59" spans="1:6" s="9" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
@@ -1907,329 +1924,259 @@
         <v>37</v>
       </c>
       <c r="B59" s="17" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="C59" s="9">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="E59" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="F59" s="15" t="s">
-        <v>122</v>
+      <c r="F59" s="9" t="s">
+        <v>116</v>
       </c>
     </row>
     <row r="60" spans="1:6" s="9" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
       <c r="A60" s="5" t="s">
-        <v>139</v>
+        <v>37</v>
       </c>
       <c r="B60" s="17" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="C60" s="9">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="E60" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="F60" s="15" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="61" spans="1:6" s="9" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="F60" s="9">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A61" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="B61" s="17" t="s">
         <v>93</v>
       </c>
-      <c r="C61" s="9">
-        <v>8</v>
-      </c>
-      <c r="E61" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="F61" s="15" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="62" spans="1:6" s="9" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="B61" t="s">
+        <v>76</v>
+      </c>
+      <c r="E61" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A62" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="B62" s="17" t="s">
-        <v>94</v>
-      </c>
-      <c r="C62" s="9">
-        <v>8</v>
+        <v>9</v>
+      </c>
+      <c r="D62" s="10" t="s">
+        <v>134</v>
       </c>
       <c r="E62" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="F62" s="15" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="63" spans="1:6" s="9" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
+        <v>135</v>
+      </c>
+      <c r="F62" s="9" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A63" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="B63" s="17" t="s">
         <v>93</v>
       </c>
-      <c r="C63" s="9">
-        <v>9</v>
-      </c>
-      <c r="E63" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="F63" s="9" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="64" spans="1:6" s="9" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="B63" t="s">
+        <v>76</v>
+      </c>
+      <c r="E63" t="s">
+        <v>76</v>
+      </c>
+      <c r="F63" s="9"/>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A64" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="B64" s="17" t="s">
-        <v>94</v>
-      </c>
-      <c r="C64" s="9">
-        <v>9</v>
-      </c>
-      <c r="E64" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="F64" s="9">
-        <v>999</v>
-      </c>
+        <v>93</v>
+      </c>
+      <c r="B64" t="s">
+        <v>76</v>
+      </c>
+      <c r="E64" t="s">
+        <v>107</v>
+      </c>
+      <c r="F64" s="9"/>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A65" s="5" t="s">
-        <v>97</v>
-      </c>
-      <c r="B65" t="s">
-        <v>79</v>
-      </c>
-      <c r="E65" t="s">
-        <v>79</v>
+        <v>9</v>
+      </c>
+      <c r="D65" s="15" t="s">
+        <v>136</v>
+      </c>
+      <c r="E65" s="9" t="s">
+        <v>137</v>
+      </c>
+      <c r="F65" s="9" t="s">
+        <v>99</v>
       </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A66" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="D66" s="10" t="s">
-        <v>98</v>
-      </c>
+        <v>94</v>
+      </c>
+      <c r="D66" s="15"/>
       <c r="E66" s="9" t="s">
-        <v>99</v>
-      </c>
-      <c r="F66" s="9" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A67" s="5" t="s">
-        <v>97</v>
-      </c>
-      <c r="B67" t="s">
-        <v>79</v>
-      </c>
-      <c r="E67" t="s">
-        <v>79</v>
-      </c>
-      <c r="F67" s="9"/>
-    </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A68" s="5" t="s">
-        <v>97</v>
-      </c>
-      <c r="B68" t="s">
-        <v>79</v>
-      </c>
-      <c r="E68" t="s">
-        <v>116</v>
-      </c>
-      <c r="F68" s="9"/>
+        <v>95</v>
+      </c>
+      <c r="F66" s="15"/>
+    </row>
+    <row r="67" spans="1:6" s="11" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A67" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="B67" s="12">
+        <v>10000</v>
+      </c>
+      <c r="D67" s="13"/>
+      <c r="E67" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="F67" s="14"/>
+    </row>
+    <row r="68" spans="1:6" s="11" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A68" s="11" t="s">
+        <v>138</v>
+      </c>
+      <c r="B68" s="12"/>
+      <c r="D68" s="13" t="s">
+        <v>63</v>
+      </c>
+      <c r="E68" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="F68" s="14"/>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A69" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="D69" s="15" t="s">
-        <v>100</v>
+        <v>35</v>
+      </c>
+      <c r="B69" t="s">
+        <v>139</v>
       </c>
       <c r="E69" s="9" t="s">
-        <v>99</v>
-      </c>
-      <c r="F69" s="9" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A70" s="5" t="s">
-        <v>101</v>
-      </c>
-      <c r="D70" s="15"/>
-      <c r="E70" s="9" t="s">
-        <v>102</v>
-      </c>
-      <c r="F70" s="15"/>
-    </row>
-    <row r="71" spans="1:6" s="11" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A71" s="11" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" s="11" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A70" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="B71" s="12">
-        <v>10000</v>
-      </c>
-      <c r="D71" s="13"/>
-      <c r="E71" s="11" t="s">
+      <c r="B70" s="12">
+        <v>3000</v>
+      </c>
+      <c r="D70" s="13"/>
+      <c r="E70" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="F71" s="14"/>
+      <c r="F70" s="14"/>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A71" s="16" t="s">
+        <v>68</v>
+      </c>
+      <c r="B71" t="s">
+        <v>67</v>
+      </c>
+      <c r="E71" s="16" t="s">
+        <v>69</v>
+      </c>
+      <c r="F71" s="9" t="s">
+        <v>103</v>
+      </c>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A72" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D72" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="E72" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="F72" s="9" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A73" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="B72" t="s">
-        <v>68</v>
-      </c>
-      <c r="E72" s="9" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="73" spans="1:6" s="11" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A73" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="B73" s="12">
-        <v>3000</v>
-      </c>
-      <c r="D73" s="13"/>
-      <c r="E73" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="F73" s="14"/>
+      <c r="B73" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="E73" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="F73" s="9"/>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A74" s="16" t="s">
-        <v>71</v>
-      </c>
-      <c r="B74" t="s">
-        <v>70</v>
-      </c>
-      <c r="E74" s="16" t="s">
-        <v>72</v>
+      <c r="A74" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D74" s="15" t="s">
+        <v>74</v>
+      </c>
+      <c r="E74" s="9" t="s">
+        <v>75</v>
       </c>
       <c r="F74" s="9" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A75" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="D75" s="10" t="s">
-        <v>73</v>
-      </c>
-      <c r="E75" s="9" t="s">
-        <v>74</v>
-      </c>
-      <c r="F75" s="9" t="s">
-        <v>113</v>
-      </c>
+        <v>105</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" s="20" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="A75" s="11" t="s">
+        <v>140</v>
+      </c>
+      <c r="D75" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="E75" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="F75" s="9"/>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A76" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="B76" s="10" t="s">
-        <v>75</v>
+        <v>9</v>
+      </c>
+      <c r="D76" s="10" t="s">
+        <v>33</v>
       </c>
       <c r="E76" s="9" t="s">
-        <v>76</v>
-      </c>
-      <c r="F76" s="9"/>
-    </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A77" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="D77" s="15" t="s">
-        <v>77</v>
-      </c>
-      <c r="E77" s="9" t="s">
-        <v>78</v>
-      </c>
-      <c r="F77" s="9" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="78" spans="1:6" s="20" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
+        <v>34</v>
+      </c>
+      <c r="F76" s="9" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" s="20" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="A77" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="E77" s="20" t="s">
+        <v>81</v>
+      </c>
+      <c r="F77" s="21"/>
+    </row>
+    <row r="78" spans="1:6" s="11" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A78" s="11" t="s">
-        <v>56</v>
-      </c>
-      <c r="D78" s="13" t="s">
-        <v>51</v>
-      </c>
+        <v>7</v>
+      </c>
+      <c r="B78" s="12">
+        <v>3000</v>
+      </c>
+      <c r="D78" s="13"/>
       <c r="E78" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="F78" s="9"/>
-    </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A79" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="D79" s="10" t="s">
-        <v>33</v>
-      </c>
-      <c r="E79" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="F79" s="9" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="80" spans="1:6" s="20" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
-      <c r="A80" s="11" t="s">
-        <v>52</v>
-      </c>
-      <c r="E80" s="20" t="s">
-        <v>84</v>
-      </c>
-      <c r="F80" s="21"/>
-    </row>
-    <row r="81" spans="1:6" s="11" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A81" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="B81" s="12">
-        <v>3000</v>
-      </c>
-      <c r="D81" s="13"/>
-      <c r="E81" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="F81" s="14"/>
-    </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A82" t="s">
-        <v>12</v>
-      </c>
-      <c r="B82" s="6"/>
-      <c r="D82" t="s">
-        <v>46</v>
-      </c>
-      <c r="E82" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="F82" t="s">
-        <v>46</v>
-      </c>
+      <c r="F78" s="14"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
